--- a/excel/file/rsyncFile.xlsx
+++ b/excel/file/rsyncFile.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
-  <workbookPr date1904="1" dateCompatibility="0" showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38360" windowHeight="23500"/>
   </bookViews>
   <sheets>
     <sheet name="pngTest" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,17 @@
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>子脚本输出</t>
     <rPh sb="0" eb="1">
@@ -39,15 +42,15 @@
     <rPh sb="3" eb="4">
       <t>shu'chu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>on</t>
@@ -60,7 +63,7 @@
     <rPh sb="6" eb="7">
       <t>jia</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>xlsx文件名</t>
@@ -70,148 +73,148 @@
     <rPh sb="6" eb="7">
       <t>ming</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>xlsx名</t>
     <rPh sb="4" eb="5">
       <t>ming</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sheet名</t>
     <rPh sb="5" eb="6">
       <t>ming</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>xlsx路径</t>
     <rPh sb="4" eb="5">
       <t>lu'jing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>复制命令行</t>
     <rPh sb="0" eb="1">
       <t>zhi'xingjiao'ben</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>驱动脚本路径</t>
     <rPh sb="0" eb="1">
       <t>jiao'bendi'zhi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>临时路径</t>
     <rPh sb="0" eb="2">
       <t>gong'ju</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>测试用文件路径</t>
     <rPh sb="0" eb="7">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>客户端脚本路径</t>
     <rPh sb="0" eb="1">
       <t>lin'shilu'jing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>服务端脚本路径</t>
     <rPh sb="0" eb="1">
       <t>lin'shilu'jing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>共通端脚本路径</t>
     <rPh sb="0" eb="1">
       <t>lin'shilu'jing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全局参数1</t>
     <rPh sb="0" eb="1">
       <t>zhi'xingjiao'ben</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全局参数2</t>
     <rPh sb="0" eb="2">
       <t>quan'ju</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>本地的工程路径，或者其他的全局参数</t>
     <rPh sb="0" eb="17">
       <t>gong'cheng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>在Excel里面进行公式替换</t>
     <rPh sb="0" eb="14">
       <t>tong'shang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>全局的变量放到这里，下面的表格可以从这里取值</t>
     <rPh sb="0" eb="22">
       <t>zhe'li</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>当前所在的文件夹路径</t>
     <rPh sb="0" eb="2">
       <t>dang'qian</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>驱动工作流的脚本</t>
     <rPh sb="0" eb="2">
       <t>qu'dong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>开关值</t>
     <rPh sb="0" eb="2">
       <t>kai'guan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
     <rPh sb="0" eb="1">
       <t>zhi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Stage1</t>
@@ -223,62 +226,149 @@
     <t>脚本路径</t>
   </si>
   <si>
-    <t>sourceFolder</t>
+    <t>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../pythonCode/ServerTools/deploy/rsync.py</t>
   </si>
   <si>
-    <t>要拷贝的目录</t>
-    <rPh sb="0" eb="1">
-      <t>rogn'qimign</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>username</t>
   </si>
   <si>
-    <t>拷贝到哪里</t>
-    <rPh sb="0" eb="1">
-      <t>duan'kouying'she</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>本地文件夹同步到服务的目标文件夹[ssh链接]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>targetFolder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>远程服务器登陆账户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>拷贝哪些文件类型</t>
-    <rPh sb="0" eb="1">
-      <t>duan'kouying'she</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>exclude</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>filters</t>
+    <t>本地目录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xlsx,png,jpg,json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>hostList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>拷贝文件，按照当前的文件夹结构平移</t>
+    <t>localFolderPath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器接收路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostFolderPath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要推送的服务器地址[数组]</t>
+    <rPh sb="0" eb="2">
+      <t>shu'zu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <rPh sb="0" eb="69">
+      <t>yong'hu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排除设定[数组]</t>
+    <rPh sb="0" eb="2">
+      <t>shu'zu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>.svn</t>
+  </si>
+  <si>
+    <t>.git</t>
+  </si>
+  <si>
+    <t>.metadata</t>
+  </si>
+  <si>
+    <t>.project</t>
+  </si>
+  <si>
+    <t>.DS_Store</t>
+  </si>
+  <si>
+    <t>.idea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin-debug/</t>
+  </si>
+  <si>
+    <t>本机文件路径</t>
     <rPh sb="0" eb="1">
-      <t>li'yonggei'dingjing'xiangchuang'jianrong'qiying'sheduan'kou</t>
+      <t>ben'di</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器地址1</t>
+    <rPh sb="0" eb="4">
+      <t>fu'wu'qi'di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器地址2</t>
+    <rPh sb="0" eb="82">
+      <t>fu'wui</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器目标文件夹</t>
+    <rPh sb="0" eb="2">
+      <t>fu'wu'qi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="15"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
+      <u/>
+      <sz val="15"/>
+      <color theme="10"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="15"/>
+      <color theme="11"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="兰亭黑-简 特黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -287,25 +377,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="兰亭黑-简 中黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="兰亭黑-简 特黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="0"/>
       <name val="兰亭黑-简 特黑"/>
       <charset val="134"/>
@@ -317,20 +389,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="兰亭黑-简 特黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="0"/>
+      <sz val="20"/>
+      <color rgb="FF7030A0"/>
       <name val="兰亭黑-简 中黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FF7030A0"/>
+      <sz val="9"/>
+      <color theme="0"/>
       <name val="兰亭黑-简 中黑"/>
       <charset val="134"/>
     </font>
@@ -344,7 +422,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,13 +458,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.499984740745262"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.499984740745262"/>
+        <fgColor rgb="FF0F243E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +494,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,310 +524,4780 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0F243E"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92CDDC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
-      <top/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
-      <top style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
-        <color indexed="64"/>
-      </start>
-      <end/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="thin">
-        <color indexed="64"/>
-      </end>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <start style="medium">
-        <color indexed="64"/>
-      </start>
-      <end/>
-      <top style="medium">
-        <color indexed="64"/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end style="medium">
-        <color indexed="64"/>
-      </end>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <start/>
-      <end/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1133" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1133" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="16" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="16" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1134">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1133"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="953" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="955" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="957" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="959" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="961" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="963" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="965" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="967" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="969" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="971" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="973" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="975" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="977" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="979" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="981" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="983" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="985" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="987" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="989" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="991" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="993" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="995" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="997" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="999" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1001" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1003" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1005" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1007" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1009" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1011" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1013" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1015" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1017" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1019" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1021" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1023" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1025" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1027" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1029" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1031" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1033" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1035" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1037" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1039" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1041" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1043" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1045" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1047" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1049" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1051" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1053" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1055" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1057" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1059" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1061" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1063" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1065" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1067" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1069" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1071" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1073" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1075" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1077" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1079" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1081" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1083" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1085" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1087" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1089" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1091" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1093" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1095" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1097" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1099" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1131" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="962" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="964" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="966" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="968" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="970" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="972" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="974" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="976" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="978" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="980" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="982" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="984" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="986" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="988" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="990" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="992" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="994" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="996" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="998" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1000" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1002" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1004" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1006" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1008" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1010" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1012" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1014" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1016" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1018" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1020" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1022" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1024" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1026" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1028" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1030" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1032" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1034" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1036" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1038" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1040" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1042" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1044" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1046" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1048" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1050" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1052" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1054" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1056" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1058" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1060" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1062" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1064" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1066" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1068" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1070" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1072" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1074" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1076" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1078" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1080" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1082" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1084" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1086" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1088" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1090" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1092" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1094" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1096" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1098" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="1132" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -709,12 +5305,12 @@
     <indexedColors>
       <rgbColor rgb="00000000"/>
       <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00DD0806"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
       <rgbColor rgb="00000000"/>
       <rgbColor rgb="00C3C9C8"/>
       <rgbColor rgb="00D5D5D5"/>
@@ -785,7 +5381,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -904,22 +5500,22 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50%"/>
-                <a:satMod val="300%"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35%">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:tint val="37%"/>
-                <a:satMod val="300%"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15%"/>
-                <a:satMod val="350%"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -927,18 +5523,18 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100%"/>
-                <a:shade val="100%"/>
-                <a:satMod val="130%"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50%"/>
-                <a:shade val="100%"/>
-                <a:satMod val="350%"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -949,8 +5545,8 @@
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95%"/>
-              <a:satMod val="105%"/>
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -973,7 +5569,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38%"/>
+                <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -982,7 +5578,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35%"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -991,7 +5587,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35%"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1014,47 +5610,47 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40%"/>
-                <a:satMod val="350%"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40%">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="45%"/>
-                <a:shade val="99%"/>
-                <a:satMod val="350%"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20%"/>
-                <a:satMod val="255%"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50%" t="-80%" r="50%" b="180%"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80%"/>
-                <a:satMod val="300%"/>
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30%"/>
-                <a:satMod val="200%"/>
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50%" t="50%" r="50%" b="50%"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1090,7 +5686,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1134,7 +5730,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1155,8 +5751,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1211,11 +5807,11 @@
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34" t="str">
+      <c r="C4" s="30" t="str">
         <f ca="1">REPLACE(CELL("filename"),FIND("[",CELL("filename"))-1,99,)</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -1225,11 +5821,11 @@
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="40" t="str">
+      <c r="C5" s="24" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/base/ExcelWorkFlow.py"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../pythonCode/base/ExcelWorkFlow.py</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -1239,55 +5835,55 @@
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="40" t="str">
+      <c r="C6" s="24" t="str">
         <f ca="1">C4&amp;"/../../test"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../test</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="15">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="40" t="str">
+      <c r="C7" s="24" t="str">
         <f ca="1">C4&amp;"/../../temp"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../temp</v>
       </c>
-      <c r="D7" s="41"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="15">
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="40" t="str">
+      <c r="C8" s="28" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/ClientTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../pythonCode/ClientTools</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="15">
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="40" t="str">
+      <c r="C9" s="28" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/ServerTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../pythonCode/ServerTools</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="15">
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="40" t="str">
+      <c r="C10" s="28" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/CommonTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../pythonCode/CommonTools</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="15">
@@ -1316,32 +5912,32 @@
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="34" t="str">
+      <c r="C13" s="30" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))</f>
         <v>pngTest</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:11" ht="15">
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="36" t="str">
+      <c r="C14" s="38" t="str">
         <f ca="1">C4&amp;"/"&amp;C11</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/rsyncFile.xlsx</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:11" ht="15">
       <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>22</v>
@@ -1351,21 +5947,21 @@
       <c r="B16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="38" t="str">
+      <c r="C17" s="40" t="str">
         <f ca="1">"python "&amp;C5&amp;" -e "&amp;C14</f>
         <v>python /Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../pythonCode/base/ExcelWorkFlow.py -e /Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/rsyncFile.xlsx</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="20">
@@ -1388,96 +5984,159 @@
       <c r="B20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
+      <c r="C20" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="33"/>
     </row>
-    <row r="21" spans="1:7" ht="22" thickBot="1">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="A21" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="32" t="str">
-        <f ca="1">C10&amp;"/File/FileFilterTo.py"</f>
-        <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../pythonCode/CommonTools/File/FileFilterTo.py</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
+      <c r="C21" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="35"/>
     </row>
     <row r="22" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="25" t="str">
-        <f ca="1">C6&amp;"/res"</f>
-        <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../test/res</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
+      <c r="D22" s="23" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="25" t="str">
-        <f ca="1">C7&amp;"/copyFromRes"</f>
-        <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../temp/copyFromRes</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="B24" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="23" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="C30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="D31" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="25" customHeight="1" thickBot="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
+  <mergeCells count="13">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>J2:J4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21">
-      <formula1>$J$2:$J$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777779102325439" footer="0.27777779102325439"/>
